--- a/!WORKFLOW/TemplateTableNew_example.xlsx
+++ b/!WORKFLOW/TemplateTableNew_example.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\Development\Nickname generator wrap\MyNamesEnvironment\!WORKFLOW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.novoselov\Google Drive\MyNamesEnvironment\!WORKFLOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9CEBDC-B288-409F-AE03-F70D37B316E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23730" windowHeight="15270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23730" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="LinksForImages" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="322">
   <si>
     <t>.1. = Feminine, .0. = Masculine</t>
   </si>
@@ -934,12 +942,6 @@
     <t>Rus Plist (don't delete)</t>
   </si>
   <si>
-    <t>.01</t>
-  </si>
-  <si>
-    <t>02.03.0.</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -967,28 +969,37 @@
     <t>Rus img url</t>
   </si>
   <si>
-    <t>02.03 - FictionGOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    01 - Stark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    02 - Targaryen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    03 - Lannister</t>
-  </si>
-  <si>
-    <t>RR - House in selected category:</t>
-  </si>
-  <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>02.04.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    01 - Human</t>
+  </si>
+  <si>
+    <t>RR - Race in selected category:</t>
+  </si>
+  <si>
+    <t>02.04 - FictionStarwars</t>
+  </si>
+  <si>
+    <t>.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    02 - Wookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    03 - Sith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    04 - Yoda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1487,49 +1498,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U499"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="23.59765625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.06640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.1328125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21.73046875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.9296875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="25.1328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="25.1328125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="4.73046875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.19921875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="25.796875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="25.86328125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14.59765625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="33.1328125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="7" customWidth="1"/>
+    <col min="11" max="12" width="25.85546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="33.140625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="15" t="s">
@@ -1537,5240 +1547,5243 @@
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="N1" s="18" t="s">
         <v>303</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="G2"/>
       <c r="H2" s="16" t="str">
         <f t="shared" ref="H2:H33" si="0">CONCATENATE("&lt;key&gt;",B2,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A2,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D2,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E2,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G2,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="10"/>
       <c r="N2" s="19" t="str">
         <f t="shared" ref="N2:N65" si="1">CONCATENATE("&lt;key&gt;",B2,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A2,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",K2,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",L2,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G2,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="U2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="10"/>
       <c r="G3"/>
       <c r="H3" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N3" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="U3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="C4" s="10"/>
       <c r="G4"/>
       <c r="H4" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N4" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="U4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="G5"/>
       <c r="H5" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N5" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+      <c r="U5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="C6" s="10"/>
       <c r="G6"/>
       <c r="H6" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N6" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="G7"/>
       <c r="H7" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N7" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="C8" s="10"/>
       <c r="G8"/>
       <c r="H8" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N8" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="G9"/>
       <c r="H9" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N9" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="C10" s="10"/>
       <c r="G10"/>
       <c r="H10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N10" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="G11"/>
       <c r="H11" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="C12" s="10"/>
       <c r="G12"/>
       <c r="H12" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N12" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="G13"/>
       <c r="H13" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N13" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="C14" s="10"/>
       <c r="G14"/>
       <c r="H14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N14" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="G15"/>
       <c r="H15" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N15" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="C16" s="10"/>
       <c r="G16"/>
       <c r="H16" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N16" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="G17"/>
       <c r="H17" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N17" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="C18" s="10"/>
       <c r="G18"/>
       <c r="H18" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N18" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
       <c r="G19"/>
       <c r="H19" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N19" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="C20" s="10"/>
       <c r="G20"/>
       <c r="H20" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N20" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="10"/>
       <c r="G21"/>
       <c r="H21" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N21" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="C22" s="10"/>
       <c r="G22"/>
       <c r="H22" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N22" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="G23"/>
       <c r="H23" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="C24" s="10"/>
       <c r="G24"/>
       <c r="H24" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N24" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="10"/>
       <c r="G25"/>
       <c r="H25" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="C26" s="10"/>
       <c r="G26"/>
       <c r="H26" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N26" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="10"/>
       <c r="H27" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N27" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="C28" s="10"/>
       <c r="H28" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N28" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="10"/>
       <c r="H29" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N29" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="H30" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I30" s="5"/>
       <c r="M30" s="10"/>
       <c r="N30" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="H31" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I31" s="5"/>
       <c r="M31" s="10"/>
       <c r="N31" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="H32" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I32" s="5"/>
       <c r="M32" s="10"/>
       <c r="N32" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="H33" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I33" s="5"/>
       <c r="M33" s="10"/>
       <c r="N33" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="H34" s="16" t="str">
-        <f t="shared" ref="H34:H65" si="2">CONCATENATE("&lt;key&gt;",B34,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A34,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D34,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E34,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G34,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <f t="shared" ref="H34:H54" si="2">CONCATENATE("&lt;key&gt;",B34,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A34,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D34,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E34,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G34,"&lt;/string&gt;&lt;/dict&gt;")</f>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I34" s="5"/>
       <c r="M34" s="10"/>
       <c r="N34" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="H35" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I35" s="5"/>
       <c r="M35" s="10"/>
       <c r="N35" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="H36" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I36" s="5"/>
       <c r="M36" s="10"/>
       <c r="N36" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="H37" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I37" s="5"/>
       <c r="M37" s="10"/>
       <c r="N37" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="H38" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I38" s="5"/>
       <c r="M38" s="10"/>
       <c r="N38" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="H39" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I39" s="5"/>
       <c r="M39" s="10"/>
       <c r="N39" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="H40" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I40" s="5"/>
       <c r="M40" s="10"/>
       <c r="N40" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="H41" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I41" s="5"/>
       <c r="M41" s="10"/>
       <c r="N41" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="H42" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I42" s="5"/>
       <c r="M42" s="10"/>
       <c r="N42" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="H43" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I43" s="5"/>
       <c r="M43" s="10"/>
       <c r="N43" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="H44" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I44" s="5"/>
       <c r="M44" s="10"/>
       <c r="N44" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="H45" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I45" s="5"/>
       <c r="M45" s="10"/>
       <c r="N45" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="C46" s="14"/>
       <c r="H46" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I46" s="5"/>
       <c r="M46" s="10"/>
       <c r="N46" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="C47" s="14"/>
       <c r="H47" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I47" s="5"/>
       <c r="M47" s="10"/>
       <c r="N47" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H48" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N48" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="H49" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N49" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H50" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N50" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="H51" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N51" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H52" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N52" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="H53" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N53" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H54" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N54" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="H55" s="16" t="str">
         <f t="shared" ref="H55:H118" si="3">CONCATENATE("&lt;key&gt;",B55,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A55,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D55,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E55,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G55,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N55" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H56" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N56" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="H57" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N57" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H58" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N58" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="H59" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N59" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H60" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N60" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="H61" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N61" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H62" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N62" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="H63" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N63" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H64" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N64" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="H65" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N65" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H66" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N66" s="19" t="str">
         <f t="shared" ref="N66:N129" si="4">CONCATENATE("&lt;key&gt;",B66,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A66,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",K66,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",L66,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G66,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="H67" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N67" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H68" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N68" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="H69" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N69" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H70" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N70" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="H71" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N71" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H72" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N72" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="H73" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N73" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H74" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N74" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="H75" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N75" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H76" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N76" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="H77" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N77" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H78" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N78" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="H79" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N79" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H80" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N80" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="H81" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N81" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H82" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N82" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="H83" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N83" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H84" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N84" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="H85" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N85" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H86" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N86" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="H87" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N87" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H88" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N88" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="H89" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N89" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H90" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N90" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="H91" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N91" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H92" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N92" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="H93" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N93" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H94" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N94" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="H95" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N95" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H96" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N96" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="H97" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N97" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H98" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N98" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="H99" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N99" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H100" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N100" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="H101" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N101" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H102" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N102" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="H103" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N103" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H104" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N104" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="H105" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N105" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H106" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N106" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="H107" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N107" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H108" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N108" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="H109" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N109" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H110" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N110" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="H111" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N111" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H112" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N112" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="H113" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N113" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H114" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N114" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="H115" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N115" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H116" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N116" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="H117" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N117" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H118" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N118" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="H119" s="16" t="str">
         <f t="shared" ref="H119:H182" si="5">CONCATENATE("&lt;key&gt;",B119,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A119,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D119,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E119,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G119,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N119" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H120" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N120" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="H121" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N121" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H122" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N122" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="H123" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N123" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H124" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N124" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="H125" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N125" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H126" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N126" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="H127" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N127" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H128" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N128" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="H129" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N129" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H130" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N130" s="19" t="str">
         <f t="shared" ref="N130:N193" si="6">CONCATENATE("&lt;key&gt;",B130,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A130,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",K130,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",L130,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G130,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="H131" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N131" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H132" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N132" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="H133" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N133" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H134" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N134" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="H135" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N135" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H136" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N136" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="H137" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N137" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H138" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N138" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="H139" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N139" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H140" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N140" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="H141" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N141" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H142" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N142" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="H143" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N143" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H144" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N144" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="H145" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N145" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H146" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N146" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="H147" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N147" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H148" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N148" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="H149" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N149" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H150" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N150" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="H151" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N151" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H152" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N152" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="H153" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N153" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H154" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N154" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="H155" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N155" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H156" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N156" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="H157" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N157" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H158" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N158" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="H159" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N159" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H160" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N160" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="H161" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N161" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H162" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N162" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="H163" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N163" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H164" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N164" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="H165" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N165" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H166" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N166" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H167" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N167" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H168" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N168" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H169" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N169" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H170" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N170" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H171" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N171" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H172" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N172" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H173" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N173" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H174" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N174" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H175" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N175" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H176" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N176" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="177" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H177" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N177" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="178" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="178" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H178" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N178" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="179" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H179" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N179" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="180" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="180" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H180" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N180" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="181" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="181" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H181" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N181" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="182" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="182" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H182" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N182" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="183" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="183" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H183" s="16" t="str">
         <f t="shared" ref="H183:H246" si="7">CONCATENATE("&lt;key&gt;",B183,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A183,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D183,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E183,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G183,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N183" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="184" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="184" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H184" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N184" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="185" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="185" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H185" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N185" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="186" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="186" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H186" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N186" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="187" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="187" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H187" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N187" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="188" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="188" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H188" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N188" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="189" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="189" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H189" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N189" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="190" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="190" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H190" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N190" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="191" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="191" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H191" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N191" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="192" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="192" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H192" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N192" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="193" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="193" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H193" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N193" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="194" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="194" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H194" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N194" s="19" t="str">
         <f t="shared" ref="N194:N257" si="8">CONCATENATE("&lt;key&gt;",B194,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A194,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",K194,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",L194,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G194,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="195" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="195" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H195" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N195" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="196" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="196" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H196" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N196" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="197" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="197" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H197" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N197" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="198" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="198" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H198" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N198" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="199" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="199" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H199" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N199" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="200" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="200" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H200" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N200" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="201" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="201" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H201" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N201" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="202" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="202" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H202" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N202" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="203" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="203" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H203" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N203" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="204" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="204" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H204" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N204" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="205" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="205" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H205" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N205" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="206" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="206" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H206" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N206" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="207" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="207" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H207" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N207" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="208" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="208" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H208" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N208" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="209" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="209" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H209" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N209" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="210" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="210" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H210" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N210" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="211" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="211" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H211" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N211" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="212" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="212" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H212" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N212" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="213" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="213" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H213" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N213" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="214" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="214" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H214" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N214" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="215" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="215" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H215" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N215" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="216" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="216" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H216" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N216" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="217" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="217" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H217" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N217" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="218" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="218" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H218" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N218" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="219" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="219" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H219" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N219" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="220" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="220" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H220" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N220" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="221" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="221" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H221" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N221" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="222" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="222" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H222" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N222" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="223" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="223" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H223" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N223" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="224" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="224" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H224" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N224" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="225" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="225" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H225" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N225" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="226" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="226" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H226" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N226" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="227" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="227" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H227" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N227" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="228" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="228" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H228" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N228" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="229" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="229" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H229" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N229" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="230" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="230" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H230" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N230" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="231" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="231" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H231" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N231" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="232" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="232" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H232" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N232" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="233" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="233" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H233" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N233" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="234" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="234" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H234" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N234" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="235" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="235" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H235" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N235" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="236" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="236" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H236" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N236" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="237" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="237" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H237" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N237" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="238" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="238" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H238" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N238" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="239" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="239" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H239" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N239" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="240" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="240" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H240" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N240" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="241" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="241" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H241" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N241" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="242" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="242" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H242" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N242" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="243" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="243" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H243" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N243" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="244" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="244" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H244" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N244" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="245" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="245" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H245" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N245" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="246" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="246" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H246" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N246" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="247" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="247" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H247" s="16" t="str">
         <f t="shared" ref="H247:H310" si="9">CONCATENATE("&lt;key&gt;",B247,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A247,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D247,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E247,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G247,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N247" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="248" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="248" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H248" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N248" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="249" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="249" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H249" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N249" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="250" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="250" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H250" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N250" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="251" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="251" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H251" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N251" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="252" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="252" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H252" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N252" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="253" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="253" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H253" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N253" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="254" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="254" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H254" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N254" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="255" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="255" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H255" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N255" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="256" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="256" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H256" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N256" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="257" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="257" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H257" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N257" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="258" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="258" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H258" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N258" s="19" t="str">
         <f t="shared" ref="N258:N321" si="10">CONCATENATE("&lt;key&gt;",B258,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A258,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",K258,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",L258,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G258,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="259" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="259" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H259" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N259" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="260" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="260" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H260" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N260" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="261" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="261" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H261" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N261" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="262" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="262" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H262" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N262" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="263" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="263" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H263" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N263" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="264" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="264" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H264" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N264" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="265" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="265" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H265" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N265" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="266" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="266" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H266" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N266" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="267" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="267" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H267" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N267" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="268" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="268" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H268" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N268" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="269" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="269" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H269" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N269" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="270" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="270" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H270" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N270" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="271" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="271" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H271" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N271" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="272" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="272" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H272" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N272" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="273" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="273" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H273" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N273" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="274" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="274" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H274" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N274" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="275" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="275" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H275" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N275" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="276" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="276" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H276" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N276" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="277" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="277" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H277" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N277" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="278" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="278" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H278" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N278" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="279" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="279" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H279" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N279" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="280" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="280" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H280" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N280" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="281" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="281" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H281" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N281" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="282" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="282" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H282" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N282" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="283" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="283" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H283" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N283" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="284" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="284" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H284" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N284" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="285" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="285" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H285" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N285" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="286" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="286" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H286" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N286" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="287" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="287" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H287" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N287" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="288" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="288" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H288" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N288" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="289" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="289" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H289" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N289" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="290" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="290" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H290" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N290" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="291" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="291" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H291" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N291" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="292" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="292" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H292" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N292" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="293" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="293" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H293" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N293" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="294" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="294" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H294" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N294" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="295" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="295" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H295" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N295" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="296" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="296" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H296" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N296" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="297" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="297" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H297" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N297" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="298" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="298" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H298" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N298" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="299" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="299" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H299" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N299" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="300" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="300" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H300" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N300" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="301" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="301" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H301" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N301" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="302" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="302" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H302" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N302" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="303" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="303" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H303" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N303" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="304" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="304" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H304" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N304" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="305" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="305" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H305" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N305" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="306" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="306" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H306" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N306" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="307" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="307" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H307" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N307" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="308" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="308" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H308" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N308" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="309" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="309" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H309" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N309" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="310" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="310" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H310" s="16" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N310" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="311" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="311" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H311" s="16" t="str">
         <f t="shared" ref="H311:H374" si="11">CONCATENATE("&lt;key&gt;",B311,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A311,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D311,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E311,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G311,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N311" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="312" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="312" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H312" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N312" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="313" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="313" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H313" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N313" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="314" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="314" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H314" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N314" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="315" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="315" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H315" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N315" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="316" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="316" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H316" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N316" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="317" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="317" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H317" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N317" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="318" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="318" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H318" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N318" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="319" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="319" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H319" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N319" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="320" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="320" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H320" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N320" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="321" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="321" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H321" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N321" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="322" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="322" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H322" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N322" s="19" t="str">
         <f t="shared" ref="N322:N385" si="12">CONCATENATE("&lt;key&gt;",B322,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A322,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",K322,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",L322,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G322,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="323" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="323" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H323" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N323" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="324" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="324" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H324" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N324" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="325" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="325" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H325" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N325" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="326" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="326" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H326" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N326" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="327" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="327" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H327" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N327" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="328" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="328" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H328" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N328" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="329" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="329" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H329" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N329" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="330" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="330" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H330" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N330" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="331" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="331" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H331" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N331" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="332" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="332" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H332" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N332" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="333" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="333" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H333" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N333" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="334" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="334" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H334" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N334" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="335" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="335" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H335" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N335" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="336" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="336" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H336" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N336" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="337" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="337" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H337" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N337" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="338" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="338" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H338" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N338" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="339" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="339" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H339" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N339" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="340" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="340" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H340" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N340" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="341" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="341" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H341" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N341" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="342" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="342" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H342" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N342" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="343" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="343" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H343" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N343" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="344" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="344" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H344" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N344" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="345" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="345" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H345" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N345" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="346" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="346" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H346" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N346" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="347" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="347" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H347" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N347" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="348" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="348" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H348" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N348" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="349" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="349" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H349" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N349" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="350" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="350" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H350" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N350" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="351" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="351" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H351" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N351" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="352" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="352" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H352" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N352" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="353" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="353" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H353" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N353" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="354" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="354" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H354" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N354" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="355" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="355" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H355" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N355" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="356" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="356" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H356" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N356" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="357" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="357" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H357" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N357" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="358" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="358" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H358" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N358" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="359" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="359" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H359" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N359" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="360" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="360" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H360" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N360" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="361" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="361" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H361" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N361" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="362" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="362" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H362" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N362" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="363" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="363" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H363" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N363" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="364" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="364" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H364" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N364" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="365" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="365" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H365" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N365" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="366" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="366" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H366" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N366" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="367" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="367" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H367" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N367" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="368" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="368" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H368" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N368" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="369" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="369" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H369" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N369" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="370" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="370" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H370" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N370" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="371" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="371" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H371" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N371" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="372" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="372" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H372" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N372" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="373" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="373" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H373" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N373" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="374" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="374" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H374" s="16" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N374" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="375" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="375" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H375" s="16" t="str">
         <f t="shared" ref="H375:H438" si="13">CONCATENATE("&lt;key&gt;",B375,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A375,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D375,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E375,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G375,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N375" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="376" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="376" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H376" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N376" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="377" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="377" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H377" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N377" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="378" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="378" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H378" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N378" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="379" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="379" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H379" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N379" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="380" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="380" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H380" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N380" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="381" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="381" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H381" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N381" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="382" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="382" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H382" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N382" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="383" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="383" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H383" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N383" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="384" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="384" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H384" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N384" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="385" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="385" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H385" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N385" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="386" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="386" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H386" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N386" s="19" t="str">
         <f t="shared" ref="N386:N449" si="14">CONCATENATE("&lt;key&gt;",B386,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A386,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",K386,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",L386,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G386,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="387" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="387" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H387" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N387" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="388" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="388" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H388" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N388" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="389" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="389" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H389" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N389" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="390" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="390" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H390" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N390" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="391" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="391" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H391" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N391" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="392" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="392" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H392" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N392" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="393" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="393" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H393" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N393" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="394" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="394" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H394" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N394" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="395" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="395" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H395" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N395" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="396" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="396" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H396" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N396" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="397" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="397" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H397" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N397" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="398" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="398" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H398" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N398" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="399" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="399" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H399" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N399" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="400" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="400" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H400" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N400" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="401" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="401" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H401" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N401" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="402" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="402" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H402" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N402" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="403" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="403" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H403" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N403" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="404" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="404" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H404" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N404" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="405" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="405" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H405" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N405" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="406" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="406" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H406" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N406" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="407" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="407" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H407" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N407" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="408" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="408" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H408" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N408" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="409" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="409" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H409" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N409" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="410" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="410" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H410" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N410" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="411" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="411" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H411" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N411" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="412" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="412" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H412" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N412" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="413" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="413" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H413" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N413" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="414" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="414" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H414" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N414" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="415" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="415" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H415" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N415" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="416" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="416" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H416" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N416" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="417" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="417" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H417" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N417" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="418" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="418" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H418" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N418" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="419" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="419" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H419" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N419" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="420" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="420" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H420" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N420" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="421" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="421" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H421" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N421" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="422" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="422" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H422" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N422" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="423" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="423" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H423" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N423" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="424" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="424" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H424" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N424" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="425" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="425" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H425" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N425" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="426" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="426" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H426" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N426" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="427" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="427" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H427" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N427" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="428" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="428" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H428" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N428" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="429" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="429" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H429" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N429" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="430" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="430" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H430" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N430" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="431" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="431" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H431" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N431" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="432" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="432" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H432" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N432" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="433" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="433" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H433" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N433" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="434" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="434" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H434" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N434" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="435" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="435" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H435" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N435" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="436" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="436" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H436" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N436" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="437" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="437" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H437" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N437" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="438" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="438" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H438" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N438" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="439" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="439" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H439" s="16" t="str">
         <f t="shared" ref="H439:H499" si="15">CONCATENATE("&lt;key&gt;",B439,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A439,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D439,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E439,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G439,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N439" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="440" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="440" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H440" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N440" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="441" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="441" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H441" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N441" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="442" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="442" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H442" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N442" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="443" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="443" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H443" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N443" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="444" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="444" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H444" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N444" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="445" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="445" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H445" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N445" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="446" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="446" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H446" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N446" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="447" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="447" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H447" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N447" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="448" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="448" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H448" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N448" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="449" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="449" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H449" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N449" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="450" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="450" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H450" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N450" s="19" t="str">
         <f t="shared" ref="N450:N499" si="16">CONCATENATE("&lt;key&gt;",B450,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;",$P$3,A450,$Q$3,"&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",K450,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",L450,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",G450,"&lt;/string&gt;&lt;/dict&gt;")</f>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="451" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="451" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H451" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N451" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="452" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="452" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H452" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N452" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="453" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="453" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H453" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N453" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="454" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="454" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H454" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N454" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="455" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="455" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H455" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N455" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="456" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="456" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H456" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N456" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="457" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="457" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H457" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N457" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="458" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="458" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H458" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N458" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="459" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="459" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H459" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N459" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="460" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="460" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H460" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N460" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="461" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="461" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H461" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N461" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="462" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="462" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H462" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N462" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="463" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="463" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H463" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N463" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="464" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="464" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H464" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N464" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="465" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="465" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H465" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N465" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="466" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="466" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H466" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N466" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="467" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="467" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H467" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N467" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="468" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="468" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H468" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N468" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="469" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="469" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H469" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N469" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="470" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="470" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H470" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N470" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="471" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="471" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H471" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N471" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="472" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="472" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H472" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N472" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="473" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="473" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H473" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N473" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="474" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="474" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H474" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N474" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="475" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="475" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H475" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N475" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="476" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="476" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H476" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N476" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="477" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="477" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H477" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N477" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="478" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="478" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H478" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N478" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="479" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="479" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H479" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N479" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="480" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="480" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H480" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N480" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="481" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="481" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H481" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N481" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="482" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="482" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H482" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N482" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="483" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="483" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H483" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N483" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="484" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="484" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H484" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N484" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="485" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="485" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H485" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N485" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="486" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="486" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H486" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N486" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="487" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="487" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H487" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N487" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="488" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="488" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H488" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N488" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="489" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="489" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H489" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N489" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="490" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="490" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H490" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N490" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="491" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="491" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H491" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N491" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="492" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="492" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H492" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N492" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="493" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="493" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H493" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N493" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="494" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="494" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H494" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N494" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="495" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="495" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H495" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N495" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="496" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="496" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H496" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N496" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="497" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="497" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H497" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N497" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="498" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="498" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H498" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N498" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
-      </c>
-    </row>
-    <row r="499" spans="8:14" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+      </c>
+    </row>
+    <row r="499" spans="8:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H499" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="N499" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.03.0..01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
+        <v>&lt;key&gt;&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.04.0..03&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -6786,21 +6799,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1328125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.1328125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="47" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -6811,7 +6824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -6822,7 +6835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -6830,7 +6843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -6838,7 +6851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -6849,7 +6862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -6860,7 +6873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -6871,7 +6884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -6882,7 +6895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -6893,7 +6906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -6904,7 +6917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -6915,7 +6928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -6923,7 +6936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
@@ -6931,7 +6944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -6942,7 +6955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -6950,7 +6963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -6961,7 +6974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -6972,7 +6985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
@@ -6983,7 +6996,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -6994,7 +7007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
@@ -7002,7 +7015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
@@ -7010,7 +7023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>45</v>
       </c>
@@ -7018,7 +7031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
@@ -7026,7 +7039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
@@ -7034,7 +7047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
@@ -7045,7 +7058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
@@ -7053,7 +7066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>55</v>
       </c>
@@ -7061,7 +7074,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>57</v>
       </c>
@@ -7069,7 +7082,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
@@ -7080,7 +7093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>62</v>
       </c>
@@ -7088,7 +7101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
@@ -7096,7 +7109,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
@@ -7107,7 +7120,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>69</v>
       </c>
@@ -7115,7 +7128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>71</v>
       </c>
@@ -7126,7 +7139,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>74</v>
       </c>
@@ -7137,7 +7150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>77</v>
       </c>
@@ -7145,7 +7158,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>79</v>
       </c>
@@ -7153,7 +7166,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>81</v>
       </c>
@@ -7161,7 +7174,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>83</v>
       </c>
@@ -7172,7 +7185,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>86</v>
       </c>
@@ -7183,7 +7196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>89</v>
       </c>
@@ -7194,7 +7207,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>92</v>
       </c>
@@ -7205,7 +7218,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>95</v>
       </c>
@@ -7213,7 +7226,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>97</v>
       </c>
@@ -7224,7 +7237,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>100</v>
       </c>
@@ -7235,7 +7248,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>103</v>
       </c>
@@ -7243,7 +7256,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>105</v>
       </c>
@@ -7254,7 +7267,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>108</v>
       </c>
@@ -7262,7 +7275,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>110</v>
       </c>
@@ -7270,7 +7283,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>112</v>
       </c>
@@ -7278,7 +7291,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>114</v>
       </c>
@@ -7286,7 +7299,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>116</v>
       </c>
@@ -7294,7 +7307,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>118</v>
       </c>
@@ -7305,7 +7318,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>121</v>
       </c>
@@ -7313,7 +7326,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>123</v>
       </c>
@@ -7321,7 +7334,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>125</v>
       </c>
@@ -7329,7 +7342,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>127</v>
       </c>
@@ -7337,7 +7350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>129</v>
       </c>
@@ -7348,7 +7361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>132</v>
       </c>
@@ -7359,7 +7372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>134</v>
       </c>
@@ -7370,7 +7383,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>137</v>
       </c>
@@ -7381,7 +7394,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>140</v>
       </c>
@@ -7392,7 +7405,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>142</v>
       </c>
@@ -7403,7 +7416,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>144</v>
       </c>
@@ -7414,7 +7427,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>147</v>
       </c>
@@ -7422,7 +7435,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>148</v>
       </c>
@@ -7433,7 +7446,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>150</v>
       </c>
@@ -7441,7 +7454,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>152</v>
       </c>
@@ -7452,7 +7465,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>154</v>
       </c>
@@ -7463,7 +7476,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>156</v>
       </c>
@@ -7471,7 +7484,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>158</v>
       </c>
@@ -7482,7 +7495,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>160</v>
       </c>
@@ -7490,7 +7503,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>162</v>
       </c>
@@ -7501,7 +7514,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>164</v>
       </c>
@@ -7509,7 +7522,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>166</v>
       </c>
@@ -7517,7 +7530,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>168</v>
       </c>
@@ -7528,7 +7541,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>170</v>
       </c>
@@ -7539,7 +7552,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>173</v>
       </c>
@@ -7547,7 +7560,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>175</v>
       </c>
@@ -7555,7 +7568,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>177</v>
       </c>
@@ -7563,7 +7576,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>179</v>
       </c>
@@ -7571,7 +7584,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>181</v>
       </c>
@@ -7582,7 +7595,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>183</v>
       </c>
@@ -7593,7 +7606,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>185</v>
       </c>
@@ -7604,7 +7617,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>187</v>
       </c>
@@ -7615,7 +7628,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>189</v>
       </c>
@@ -7626,7 +7639,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>191</v>
       </c>
@@ -7637,7 +7650,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>194</v>
       </c>
@@ -7648,7 +7661,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>196</v>
       </c>
@@ -7656,7 +7669,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>198</v>
       </c>
@@ -7664,7 +7677,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>200</v>
       </c>
@@ -7672,7 +7685,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>202</v>
       </c>
@@ -7680,7 +7693,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>204</v>
       </c>
@@ -7688,7 +7701,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>206</v>
       </c>
@@ -7699,7 +7712,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>208</v>
       </c>
@@ -7710,7 +7723,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>210</v>
       </c>
@@ -7721,7 +7734,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>212</v>
       </c>
@@ -7732,7 +7745,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>214</v>
       </c>
@@ -7740,7 +7753,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>216</v>
       </c>
@@ -7748,7 +7761,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>218</v>
       </c>
@@ -7759,7 +7772,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>220</v>
       </c>
@@ -7770,7 +7783,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>222</v>
       </c>
@@ -7778,7 +7791,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>224</v>
       </c>
@@ -7789,7 +7802,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>226</v>
       </c>
@@ -7797,7 +7810,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>228</v>
       </c>
@@ -7805,7 +7818,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>230</v>
       </c>
@@ -7816,7 +7829,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>232</v>
       </c>
@@ -7824,7 +7837,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>234</v>
       </c>
@@ -7835,7 +7848,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>236</v>
       </c>
@@ -7843,7 +7856,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>238</v>
       </c>
@@ -7854,7 +7867,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>240</v>
       </c>
@@ -7862,7 +7875,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>242</v>
       </c>
@@ -7870,7 +7883,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>244</v>
       </c>
@@ -7881,7 +7894,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>246</v>
       </c>
@@ -7889,7 +7902,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>248</v>
       </c>
@@ -7900,7 +7913,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>250</v>
       </c>
@@ -7911,7 +7924,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>252</v>
       </c>
@@ -7919,7 +7932,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>253</v>
       </c>
@@ -7927,7 +7940,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>254</v>
       </c>
@@ -7938,7 +7951,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>255</v>
       </c>
@@ -7946,7 +7959,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>256</v>
       </c>
@@ -7957,7 +7970,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>257</v>
       </c>
@@ -7965,7 +7978,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>258</v>
       </c>
@@ -7973,7 +7986,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>259</v>
       </c>
@@ -7981,7 +7994,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>260</v>
       </c>
@@ -7992,7 +8005,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>263</v>
       </c>
@@ -8000,7 +8013,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>264</v>
       </c>
@@ -8008,7 +8021,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>266</v>
       </c>
@@ -8016,7 +8029,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>268</v>
       </c>
@@ -8024,7 +8037,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>270</v>
       </c>
@@ -8032,7 +8045,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>272</v>
       </c>
@@ -8043,7 +8056,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>274</v>
       </c>
@@ -8051,7 +8064,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>276</v>
       </c>
@@ -8059,7 +8072,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>278</v>
       </c>
@@ -8067,7 +8080,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>279</v>
       </c>
@@ -8078,7 +8091,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>280</v>
       </c>
@@ -8086,7 +8099,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>282</v>
       </c>
@@ -8094,7 +8107,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>284</v>
       </c>
@@ -8102,7 +8115,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>285</v>
       </c>
@@ -8110,7 +8123,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>286</v>
       </c>
@@ -8118,7 +8131,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>288</v>
       </c>
@@ -8126,7 +8139,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>290</v>
       </c>
@@ -8134,62 +8147,62 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="146" spans="3:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="3:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="147" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="148" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="151" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="152" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="153" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="7" t="s">
         <v>301</v>
       </c>
